--- a/src/main/java/data.xlsx
+++ b/src/main/java/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16500" windowHeight="4305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14985" windowHeight="6015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>tutorial</t>
+  </si>
+  <si>
+    <t>London</t>
   </si>
 </sst>
 </file>
@@ -364,10 +367,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,6 +380,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
